--- a/JUEGOS PLACAS/P14NDC104 PLACAS 3.5 TITANIO/P14NDJ10 PLACAS PHILOS # 2 TIT.xlsx
+++ b/JUEGOS PLACAS/P14NDC104 PLACAS 3.5 TITANIO/P14NDJ10 PLACAS PHILOS # 2 TIT.xlsx
@@ -1,46 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\JUEGOS PLACAS\P14NDC104 PLACAS 3.5 TITANIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4B2B7074-ADDC-43C4-987F-73D2F115BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705"/>
+    <workbookView xWindow="13020" yWindow="270" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -948,7 +938,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1308,11 +1298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1613,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="42">
-        <v>2000094730</v>
+        <v>201124170</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>36</v>
